--- a/PaxOceanファイル構成.xlsx
+++ b/PaxOceanファイル構成.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwasaki\Desktop\Editor_For_PaxOcean_Ver2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5E778F-5FD1-4194-B453-39EBBFC84F59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC657890-243A-4A06-9CC1-02DFCD3C3F8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{219CB6B8-F956-4807-85CC-E0BA80326770}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="207">
   <si>
     <t>set</t>
     <phoneticPr fontId="1"/>
@@ -803,6 +803,14 @@
     <rPh sb="16" eb="17">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>readed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1007,6 +1015,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1029,15 +1046,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1579,6 +1587,72 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{857D9B7D-A64B-4E52-AA8B-5FDE723D45E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1562100" y="13544550"/>
+          <a:ext cx="4010025" cy="2324100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1908,10 +1982,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADEE4C9-0E94-42EC-B65C-6C509CBD9741}">
-  <dimension ref="A2:I58"/>
+  <dimension ref="A2:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1926,39 +2000,39 @@
     <col min="10" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
         <v>201</v>
       </c>
@@ -1966,32 +2040,35 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="9" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J4" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -2012,7 +2089,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
@@ -2033,7 +2110,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -2054,93 +2131,105 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="9" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J8" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="9" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J9" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="9" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J10" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17" t="s">
+      <c r="F11" s="11"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="9" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J11" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
@@ -2156,14 +2245,17 @@
         <v>145</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="9" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J12" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -2179,14 +2271,17 @@
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="9" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J13" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
@@ -2200,14 +2295,17 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="9" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J14" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
@@ -2221,14 +2319,17 @@
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="9" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J15" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
@@ -2242,11 +2343,14 @@
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="9" t="s">
         <v>161</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -2553,7 +2657,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
@@ -2572,7 +2676,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
@@ -2591,7 +2695,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
@@ -2610,7 +2714,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
@@ -2629,7 +2733,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
@@ -2648,7 +2752,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
@@ -2667,7 +2771,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
@@ -2686,7 +2790,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
@@ -2705,7 +2809,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -2721,14 +2825,17 @@
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="17" t="s">
+      <c r="H41" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="I41" s="17" t="s">
+      <c r="I41" s="9" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J41" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
@@ -2746,8 +2853,11 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J42" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
@@ -2766,7 +2876,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
@@ -2780,14 +2890,14 @@
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="17" t="s">
+      <c r="H44" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="I44" s="17" t="s">
+      <c r="I44" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
@@ -2807,50 +2917,59 @@
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17" t="s">
+      <c r="J45" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17" t="s">
+      <c r="F46" s="11"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="I46" s="17" t="s">
+      <c r="I46" s="9" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17" t="s">
+      <c r="J46" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F47" s="19"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17" t="s">
+      <c r="F47" s="11"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="I47" s="17" t="s">
+      <c r="I47" s="9" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J47" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
@@ -2864,14 +2983,17 @@
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="17" t="s">
+      <c r="H48" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="I48" s="17" t="s">
+      <c r="I48" s="9" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J48" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
@@ -2885,14 +3007,17 @@
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="17" t="s">
+      <c r="H49" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="I49" s="17" t="s">
+      <c r="I49" s="9" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J49" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
@@ -2906,14 +3031,17 @@
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="17" t="s">
+      <c r="H50" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="I50" s="17" t="s">
+      <c r="I50" s="9" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J50" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
@@ -2927,14 +3055,17 @@
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="17" t="s">
+      <c r="H51" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="I51" s="17" t="s">
+      <c r="I51" s="9" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J51" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
@@ -2948,14 +3079,17 @@
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="17" t="s">
+      <c r="H52" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="I52" s="17" t="s">
+      <c r="I52" s="9" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J52" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
@@ -2969,14 +3103,17 @@
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="17" t="s">
+      <c r="H53" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="I53" s="17" t="s">
+      <c r="I53" s="9" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J53" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
@@ -2990,14 +3127,17 @@
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="17" t="s">
+      <c r="H54" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="I54" s="17" t="s">
+      <c r="I54" s="9" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J54" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
@@ -3011,14 +3151,17 @@
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="17" t="s">
+      <c r="H55" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="I55" s="17" t="s">
+      <c r="I55" s="9" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J55" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
@@ -3032,15 +3175,21 @@
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="17" t="s">
+      <c r="H56" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="I56" s="17" t="s">
+      <c r="I56" s="9" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="J56" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C60"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="F2:F3"/>
@@ -3054,5 +3203,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PaxOceanファイル構成.xlsx
+++ b/PaxOceanファイル構成.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwasaki\Desktop\Editor_For_PaxOcean_Ver2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC657890-243A-4A06-9CC1-02DFCD3C3F8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8E6C47-3A44-4C80-92EE-4BB753BA6283}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{219CB6B8-F956-4807-85CC-E0BA80326770}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="205">
   <si>
     <t>set</t>
     <phoneticPr fontId="1"/>
@@ -803,14 +803,6 @@
     <rPh sb="16" eb="17">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>readed</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1587,72 +1579,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{857D9B7D-A64B-4E52-AA8B-5FDE723D45E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1562100" y="13544550"/>
-          <a:ext cx="4010025" cy="2324100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1982,10 +1908,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADEE4C9-0E94-42EC-B65C-6C509CBD9741}">
-  <dimension ref="A2:J60"/>
+  <dimension ref="A2:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2000,7 +1926,7 @@
     <col min="10" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>57</v>
       </c>
@@ -2025,7 +1951,7 @@
       </c>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -2040,7 +1966,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2064,11 +1990,8 @@
       <c r="I4" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -2089,7 +2012,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
@@ -2110,7 +2033,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -2131,7 +2054,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="9" t="s">
@@ -2151,11 +2074,8 @@
       <c r="I8" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="9" t="s">
@@ -2175,11 +2095,8 @@
       <c r="I9" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -2201,11 +2118,8 @@
       <c r="I10" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="9" t="s">
@@ -2225,11 +2139,8 @@
       <c r="I11" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
@@ -2251,11 +2162,8 @@
       <c r="I12" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -2277,11 +2185,8 @@
       <c r="I13" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
@@ -2301,11 +2206,8 @@
       <c r="I14" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
@@ -2325,11 +2227,8 @@
       <c r="I15" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
@@ -2348,9 +2247,6 @@
       </c>
       <c r="I16" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -2657,7 +2553,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
@@ -2676,7 +2572,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
@@ -2695,7 +2591,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
@@ -2714,7 +2610,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
@@ -2733,7 +2629,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
@@ -2752,7 +2648,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
@@ -2771,7 +2667,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
@@ -2790,7 +2686,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
@@ -2809,7 +2705,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -2831,11 +2727,8 @@
       <c r="I41" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
@@ -2853,11 +2746,8 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
-      <c r="J42" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
@@ -2876,7 +2766,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
@@ -2897,7 +2787,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
@@ -2917,11 +2807,8 @@
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-      <c r="J45" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9" t="s">
@@ -2941,11 +2828,8 @@
       <c r="I46" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="J46" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9" t="s">
@@ -2965,11 +2849,8 @@
       <c r="I47" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="J47" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
@@ -2989,11 +2870,8 @@
       <c r="I48" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="49" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
@@ -3013,11 +2891,8 @@
       <c r="I49" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="J49" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
@@ -3037,11 +2912,8 @@
       <c r="I50" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J50" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
@@ -3061,11 +2933,8 @@
       <c r="I51" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="J51" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="52" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
@@ -3085,11 +2954,8 @@
       <c r="I52" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
@@ -3109,11 +2975,8 @@
       <c r="I53" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="J53" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="54" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
@@ -3133,11 +2996,8 @@
       <c r="I54" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="J54" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="55" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
@@ -3157,11 +3017,8 @@
       <c r="I55" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="J55" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="56" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
@@ -3181,13 +3038,10 @@
       <c r="I56" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="J56" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C60"/>
     </row>
   </sheetData>
@@ -3203,6 +3057,5 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>